--- a/REGULAR/CASUAL-REGULAR FINAL/GATPANDAN, NENITA.xlsx
+++ b/REGULAR/CASUAL-REGULAR FINAL/GATPANDAN, NENITA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\CASUAL-REGULAR FINAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F96589-4EF8-4AD9-A8D8-790DB14E7D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="286">
   <si>
     <t>PERIOD</t>
   </si>
@@ -886,12 +885,18 @@
   </si>
   <si>
     <t>4/27,28/2023</t>
+  </si>
+  <si>
+    <t>7/4,5,10/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1566,7 +1571,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1583,26 +1588,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K455" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K455" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K455" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K455"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1909,34 +1914,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K455"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="2628" topLeftCell="A2" activePane="bottomLeft"/>
-      <selection activeCell="F12" sqref="F12"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="2625" topLeftCell="A401" activePane="bottomLeft"/>
+      <selection activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="I412" sqref="I412"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="31.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="31.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1957,7 +1962,7 @@
       <c r="J2" s="54"/>
       <c r="K2" s="55"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1979,7 +1984,7 @@
       <c r="J3" s="56"/>
       <c r="K3" s="57"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2001,7 +2006,7 @@
       <c r="J4" s="54"/>
       <c r="K4" s="55"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2009,7 +2014,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2022,7 +2027,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="52" t="s">
@@ -2039,7 +2044,7 @@
       <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2074,7 +2079,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2083,7 +2088,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>142.12499999999994</v>
+        <v>143.37499999999994</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2093,12 +2098,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>184.45799999999997</v>
+        <v>182.70799999999997</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>85</v>
       </c>
@@ -2113,7 +2118,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="39">
         <v>36374</v>
       </c>
@@ -2132,7 +2137,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="39">
         <v>36433</v>
       </c>
@@ -2152,7 +2157,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="39">
         <v>36464</v>
       </c>
@@ -2172,7 +2177,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="39">
         <v>36494</v>
       </c>
@@ -2196,7 +2201,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="39">
         <v>36525</v>
       </c>
@@ -2220,7 +2225,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="47" t="s">
         <v>103</v>
       </c>
@@ -2242,7 +2247,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="39">
         <v>36556</v>
       </c>
@@ -2266,7 +2271,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="39">
         <v>36585</v>
       </c>
@@ -2290,7 +2295,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="39">
         <v>36616</v>
       </c>
@@ -2314,7 +2319,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="39">
         <v>36646</v>
       </c>
@@ -2338,7 +2343,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="39">
         <v>36677</v>
       </c>
@@ -2362,7 +2367,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="39">
         <v>36707</v>
       </c>
@@ -2388,7 +2393,7 @@
         <v>36652</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="39"/>
       <c r="B23" s="20" t="s">
         <v>47</v>
@@ -2410,7 +2415,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="39"/>
       <c r="B24" s="20" t="s">
         <v>57</v>
@@ -2427,7 +2432,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="39"/>
       <c r="B25" s="20" t="s">
         <v>45</v>
@@ -2446,7 +2451,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="39"/>
       <c r="B26" s="20" t="s">
         <v>111</v>
@@ -2463,7 +2468,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="39">
         <v>36738</v>
       </c>
@@ -2489,7 +2494,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="39"/>
       <c r="B28" s="20" t="s">
         <v>57</v>
@@ -2506,7 +2511,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="39">
         <v>36769</v>
       </c>
@@ -2532,7 +2537,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="39"/>
       <c r="B30" s="20" t="s">
         <v>111</v>
@@ -2552,7 +2557,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="39">
         <v>36799</v>
       </c>
@@ -2578,7 +2583,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="39">
         <v>36830</v>
       </c>
@@ -2604,7 +2609,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="39"/>
       <c r="B33" s="20" t="s">
         <v>118</v>
@@ -2624,7 +2629,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="39">
         <v>36860</v>
       </c>
@@ -2644,7 +2649,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="39">
         <v>36891</v>
       </c>
@@ -2668,7 +2673,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="39"/>
       <c r="B36" s="20" t="s">
         <v>54</v>
@@ -2686,7 +2691,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="47" t="s">
         <v>102</v>
       </c>
@@ -2708,7 +2713,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="39">
         <v>36922</v>
       </c>
@@ -2732,7 +2737,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="39"/>
       <c r="B39" s="20" t="s">
         <v>45</v>
@@ -2754,7 +2759,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="39">
         <v>36950</v>
       </c>
@@ -2774,7 +2779,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="39">
         <v>36981</v>
       </c>
@@ -2800,7 +2805,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="39"/>
       <c r="B42" s="20" t="s">
         <v>57</v>
@@ -2820,7 +2825,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="39"/>
       <c r="B43" s="20" t="s">
         <v>121</v>
@@ -2840,7 +2845,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="39">
         <v>37011</v>
       </c>
@@ -2864,7 +2869,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="39"/>
       <c r="B45" s="20" t="s">
         <v>57</v>
@@ -2884,7 +2889,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="39">
         <v>37042</v>
       </c>
@@ -2908,7 +2913,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="39"/>
       <c r="B47" s="20" t="s">
         <v>57</v>
@@ -2928,7 +2933,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="39">
         <v>37072</v>
       </c>
@@ -2954,7 +2959,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="39"/>
       <c r="B49" s="20" t="s">
         <v>124</v>
@@ -2976,7 +2981,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="39">
         <v>37103</v>
       </c>
@@ -3000,7 +3005,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="39">
         <v>37134</v>
       </c>
@@ -3020,7 +3025,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="39">
         <v>37164</v>
       </c>
@@ -3040,7 +3045,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="39">
         <v>37195</v>
       </c>
@@ -3064,7 +3069,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="39">
         <v>37225</v>
       </c>
@@ -3090,7 +3095,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="39"/>
       <c r="B55" s="20" t="s">
         <v>106</v>
@@ -3110,7 +3115,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="39">
         <v>37256</v>
       </c>
@@ -3136,7 +3141,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="39"/>
       <c r="B57" s="20" t="s">
         <v>105</v>
@@ -3156,7 +3161,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="47" t="s">
         <v>101</v>
       </c>
@@ -3178,7 +3183,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="39">
         <v>37287</v>
       </c>
@@ -3204,7 +3209,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="39"/>
       <c r="B60" s="20" t="s">
         <v>125</v>
@@ -3224,7 +3229,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="39"/>
       <c r="B61" s="20" t="s">
         <v>57</v>
@@ -3244,7 +3249,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="39">
         <v>37315</v>
       </c>
@@ -3268,7 +3273,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="39"/>
       <c r="B63" s="20" t="s">
         <v>57</v>
@@ -3288,7 +3293,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="39">
         <v>37346</v>
       </c>
@@ -3312,7 +3317,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="39">
         <v>37376</v>
       </c>
@@ -3336,7 +3341,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="39">
         <v>37407</v>
       </c>
@@ -3362,7 +3367,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="39"/>
       <c r="B67" s="20" t="s">
         <v>57</v>
@@ -3380,7 +3385,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="39"/>
       <c r="B68" s="20" t="s">
         <v>136</v>
@@ -3402,7 +3407,7 @@
         <v>37382</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="39">
         <v>37437</v>
       </c>
@@ -3428,7 +3433,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="39">
         <v>37468</v>
       </c>
@@ -3454,7 +3459,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="39">
         <v>37499</v>
       </c>
@@ -3480,7 +3485,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="39"/>
       <c r="B72" s="20" t="s">
         <v>47</v>
@@ -3499,7 +3504,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="39">
         <v>37529</v>
       </c>
@@ -3519,7 +3524,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="39">
         <v>37560</v>
       </c>
@@ -3545,7 +3550,7 @@
         <v>37356</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="39"/>
       <c r="B75" s="20" t="s">
         <v>152</v>
@@ -3565,7 +3570,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="39">
         <v>37590</v>
       </c>
@@ -3585,7 +3590,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="39">
         <v>37621</v>
       </c>
@@ -3609,7 +3614,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="47" t="s">
         <v>100</v>
       </c>
@@ -3631,7 +3636,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="39">
         <v>37652</v>
       </c>
@@ -3651,7 +3656,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="39">
         <v>37680</v>
       </c>
@@ -3677,7 +3682,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="39">
         <v>37711</v>
       </c>
@@ -3703,7 +3708,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="39"/>
       <c r="B82" s="20" t="s">
         <v>57</v>
@@ -3723,7 +3728,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="39">
         <v>37741</v>
       </c>
@@ -3749,7 +3754,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="39"/>
       <c r="B84" s="20" t="s">
         <v>57</v>
@@ -3769,7 +3774,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="39">
         <v>37772</v>
       </c>
@@ -3789,7 +3794,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="39">
         <v>37802</v>
       </c>
@@ -3809,7 +3814,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="39">
         <v>37833</v>
       </c>
@@ -3829,7 +3834,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="39">
         <v>37864</v>
       </c>
@@ -3853,7 +3858,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="39">
         <v>37894</v>
       </c>
@@ -3877,7 +3882,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="39">
         <v>37925</v>
       </c>
@@ -3903,7 +3908,7 @@
         <v>37904</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="39"/>
       <c r="B91" s="20" t="s">
         <v>160</v>
@@ -3923,7 +3928,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="39">
         <v>37955</v>
       </c>
@@ -3943,7 +3948,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="39">
         <v>37986</v>
       </c>
@@ -3969,7 +3974,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="39"/>
       <c r="B94" s="20" t="s">
         <v>161</v>
@@ -3989,7 +3994,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="47" t="s">
         <v>99</v>
       </c>
@@ -4011,7 +4016,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="39">
         <v>38017</v>
       </c>
@@ -4037,7 +4042,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="39"/>
       <c r="B97" s="20" t="s">
         <v>162</v>
@@ -4057,7 +4062,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="39">
         <v>38046</v>
       </c>
@@ -4081,7 +4086,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="39">
         <v>38077</v>
       </c>
@@ -4107,7 +4112,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="39"/>
       <c r="B100" s="20" t="s">
         <v>45</v>
@@ -4129,7 +4134,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="39">
         <v>38107</v>
       </c>
@@ -4153,7 +4158,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="39"/>
       <c r="B102" s="20" t="s">
         <v>57</v>
@@ -4173,7 +4178,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="39">
         <v>38138</v>
       </c>
@@ -4193,7 +4198,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="39">
         <v>38168</v>
       </c>
@@ -4213,7 +4218,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="39">
         <v>38199</v>
       </c>
@@ -4233,7 +4238,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="39">
         <v>38230</v>
       </c>
@@ -4253,7 +4258,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="39">
         <v>38260</v>
       </c>
@@ -4279,7 +4284,7 @@
         <v>38026</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="39">
         <v>38291</v>
       </c>
@@ -4305,7 +4310,7 @@
         <v>38028</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="39">
         <v>38321</v>
       </c>
@@ -4325,7 +4330,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="39">
         <v>38352</v>
       </c>
@@ -4349,7 +4354,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="39"/>
       <c r="B111" s="20" t="s">
         <v>170</v>
@@ -4369,7 +4374,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="47" t="s">
         <v>98</v>
       </c>
@@ -4391,7 +4396,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="39">
         <v>38383</v>
       </c>
@@ -4417,7 +4422,7 @@
         <v>38534</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="39"/>
       <c r="B114" s="20" t="s">
         <v>45</v>
@@ -4439,7 +4444,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="39">
         <v>38411</v>
       </c>
@@ -4463,7 +4468,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="39">
         <v>38442</v>
       </c>
@@ -4483,7 +4488,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="39">
         <v>38472</v>
       </c>
@@ -4507,7 +4512,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="39"/>
       <c r="B118" s="20" t="s">
         <v>57</v>
@@ -4527,7 +4532,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="39">
         <v>38503</v>
       </c>
@@ -4553,7 +4558,7 @@
         <v>38509</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="39">
         <v>38533</v>
       </c>
@@ -4573,7 +4578,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="39">
         <v>38564</v>
       </c>
@@ -4599,7 +4604,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="39"/>
       <c r="B122" s="20" t="s">
         <v>78</v>
@@ -4621,7 +4626,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="39">
         <v>38595</v>
       </c>
@@ -4647,7 +4652,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="39"/>
       <c r="B124" s="20" t="s">
         <v>45</v>
@@ -4669,7 +4674,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="39">
         <v>38625</v>
       </c>
@@ -4689,7 +4694,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="39">
         <v>38656</v>
       </c>
@@ -4715,7 +4720,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="39">
         <v>38686</v>
       </c>
@@ -4735,7 +4740,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="39">
         <v>38717</v>
       </c>
@@ -4755,7 +4760,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="47" t="s">
         <v>97</v>
       </c>
@@ -4777,7 +4782,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="39">
         <v>38748</v>
       </c>
@@ -4797,7 +4802,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="39">
         <v>38776</v>
       </c>
@@ -4817,7 +4822,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="39">
         <v>38807</v>
       </c>
@@ -4843,7 +4848,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="39">
         <v>38837</v>
       </c>
@@ -4869,7 +4874,7 @@
         <v>38872</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="39"/>
       <c r="B134" s="20" t="s">
         <v>57</v>
@@ -4886,7 +4891,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="39">
         <v>38868</v>
       </c>
@@ -4910,7 +4915,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="39">
         <v>38898</v>
       </c>
@@ -4930,7 +4935,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="39">
         <v>38929</v>
       </c>
@@ -4956,7 +4961,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="39">
         <v>38960</v>
       </c>
@@ -4980,7 +4985,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="39">
         <v>38990</v>
       </c>
@@ -5006,7 +5011,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="39"/>
       <c r="B140" s="20" t="s">
         <v>47</v>
@@ -5025,7 +5030,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="39">
         <v>39021</v>
       </c>
@@ -5045,7 +5050,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="39">
         <v>39051</v>
       </c>
@@ -5065,7 +5070,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="39">
         <v>39082</v>
       </c>
@@ -5091,7 +5096,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="47" t="s">
         <v>96</v>
       </c>
@@ -5113,7 +5118,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="39">
         <v>39113</v>
       </c>
@@ -5139,7 +5144,7 @@
         <v>39203</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="39"/>
       <c r="B146" s="20" t="s">
         <v>45</v>
@@ -5158,7 +5163,7 @@
         <v>39417</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="39">
         <v>39141</v>
       </c>
@@ -5184,7 +5189,7 @@
         <v>39115</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="39">
         <v>39172</v>
       </c>
@@ -5208,7 +5213,7 @@
         <v>39117</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="39"/>
       <c r="B149" s="20" t="s">
         <v>46</v>
@@ -5227,7 +5232,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="39">
         <v>39202</v>
       </c>
@@ -5247,7 +5252,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="39">
         <v>39233</v>
       </c>
@@ -5273,7 +5278,7 @@
         <v>39146</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="39"/>
       <c r="B152" s="20" t="s">
         <v>45</v>
@@ -5292,7 +5297,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="39"/>
       <c r="B153" s="20" t="s">
         <v>45</v>
@@ -5311,7 +5316,7 @@
         <v>39268</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="39"/>
       <c r="B154" s="20" t="s">
         <v>57</v>
@@ -5328,7 +5333,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="39"/>
       <c r="B155" s="20" t="s">
         <v>45</v>
@@ -5347,7 +5352,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="39">
         <v>39263</v>
       </c>
@@ -5364,7 +5369,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="39">
         <v>39294</v>
       </c>
@@ -5384,7 +5389,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="39">
         <v>39325</v>
       </c>
@@ -5410,7 +5415,7 @@
         <v>39090</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="39">
         <v>39355</v>
       </c>
@@ -5430,7 +5435,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="39">
         <v>39386</v>
       </c>
@@ -5450,7 +5455,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="39">
         <v>39416</v>
       </c>
@@ -5476,7 +5481,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="39"/>
       <c r="B162" s="20" t="s">
         <v>45</v>
@@ -5495,7 +5500,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="39"/>
       <c r="B163" s="20" t="s">
         <v>170</v>
@@ -5512,7 +5517,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="39"/>
       <c r="B164" s="20" t="s">
         <v>45</v>
@@ -5531,7 +5536,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="39">
         <v>39447</v>
       </c>
@@ -5551,7 +5556,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="47" t="s">
         <v>95</v>
       </c>
@@ -5573,7 +5578,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="39">
         <v>39478</v>
       </c>
@@ -5593,7 +5598,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="39">
         <v>39507</v>
       </c>
@@ -5619,7 +5624,7 @@
         <v>39449</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="39"/>
       <c r="B169" s="20" t="s">
         <v>196</v>
@@ -5639,7 +5644,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="48"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="39">
         <v>39538</v>
       </c>
@@ -5665,7 +5670,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="39"/>
       <c r="B171" s="20" t="s">
         <v>45</v>
@@ -5687,7 +5692,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="39"/>
       <c r="B172" s="20" t="s">
         <v>196</v>
@@ -5707,7 +5712,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="39">
         <v>39568</v>
       </c>
@@ -5731,7 +5736,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="39"/>
       <c r="B174" s="20" t="s">
         <v>57</v>
@@ -5751,7 +5756,7 @@
         <v>39452</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="39"/>
       <c r="B175" s="20" t="s">
         <v>45</v>
@@ -5773,7 +5778,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="39"/>
       <c r="B176" s="20" t="s">
         <v>197</v>
@@ -5793,7 +5798,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="39">
         <v>39599</v>
       </c>
@@ -5819,7 +5824,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="39"/>
       <c r="B178" s="20" t="s">
         <v>198</v>
@@ -5839,7 +5844,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="39">
         <v>39629</v>
       </c>
@@ -5859,7 +5864,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="39">
         <v>39660</v>
       </c>
@@ -5879,7 +5884,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="39">
         <v>39691</v>
       </c>
@@ -5899,7 +5904,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="39">
         <v>39721</v>
       </c>
@@ -5925,7 +5930,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="39">
         <v>39752</v>
       </c>
@@ -5945,7 +5950,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="39">
         <v>39782</v>
       </c>
@@ -5971,7 +5976,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="39"/>
       <c r="B185" s="20" t="s">
         <v>205</v>
@@ -5991,7 +5996,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="39">
         <v>39813</v>
       </c>
@@ -6011,7 +6016,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="47" t="s">
         <v>94</v>
       </c>
@@ -6033,7 +6038,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="39">
         <v>39844</v>
       </c>
@@ -6057,7 +6062,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="39">
         <v>39872</v>
       </c>
@@ -6083,7 +6088,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="39">
         <v>39903</v>
       </c>
@@ -6109,7 +6114,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="39"/>
       <c r="B191" s="20" t="s">
         <v>208</v>
@@ -6131,7 +6136,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="39">
         <v>39933</v>
       </c>
@@ -6155,7 +6160,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="39"/>
       <c r="B193" s="20" t="s">
         <v>57</v>
@@ -6175,7 +6180,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="39">
         <v>39964</v>
       </c>
@@ -6201,7 +6206,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="39">
         <v>39994</v>
       </c>
@@ -6221,7 +6226,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="39">
         <v>40025</v>
       </c>
@@ -6241,7 +6246,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="39">
         <v>40056</v>
       </c>
@@ -6267,7 +6272,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="39">
         <v>40086</v>
       </c>
@@ -6287,7 +6292,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="39">
         <v>40117</v>
       </c>
@@ -6307,7 +6312,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="39">
         <v>40147</v>
       </c>
@@ -6333,7 +6338,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="39">
         <v>40178</v>
       </c>
@@ -6353,7 +6358,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="47" t="s">
         <v>93</v>
       </c>
@@ -6375,7 +6380,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="39">
         <v>40209</v>
       </c>
@@ -6399,7 +6404,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="39">
         <v>40237</v>
       </c>
@@ -6419,7 +6424,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="39">
         <v>40268</v>
       </c>
@@ -6439,7 +6444,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="39">
         <v>40298</v>
       </c>
@@ -6463,7 +6468,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="39">
         <v>40329</v>
       </c>
@@ -6489,7 +6494,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="39">
         <v>40359</v>
       </c>
@@ -6509,7 +6514,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="39">
         <v>40390</v>
       </c>
@@ -6529,7 +6534,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="39">
         <v>40421</v>
       </c>
@@ -6555,7 +6560,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="39"/>
       <c r="B211" s="20" t="s">
         <v>217</v>
@@ -6572,7 +6577,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="39">
         <v>40451</v>
       </c>
@@ -6596,7 +6601,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="39">
         <v>40482</v>
       </c>
@@ -6622,7 +6627,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="39">
         <v>40512</v>
       </c>
@@ -6642,7 +6647,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="39">
         <v>40543</v>
       </c>
@@ -6666,7 +6671,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="47" t="s">
         <v>92</v>
       </c>
@@ -6688,7 +6693,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="39">
         <v>40574</v>
       </c>
@@ -6708,7 +6713,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="39">
         <v>40602</v>
       </c>
@@ -6728,7 +6733,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="39">
         <v>40633</v>
       </c>
@@ -6748,7 +6753,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="39">
         <v>40663</v>
       </c>
@@ -6774,7 +6779,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="39">
         <v>40694</v>
       </c>
@@ -6794,7 +6799,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="39">
         <v>40724</v>
       </c>
@@ -6814,7 +6819,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="39">
         <v>40755</v>
       </c>
@@ -6834,7 +6839,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="39">
         <v>40786</v>
       </c>
@@ -6860,7 +6865,7 @@
         <v>40794</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="39"/>
       <c r="B225" s="20" t="s">
         <v>45</v>
@@ -6879,7 +6884,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="39">
         <v>40816</v>
       </c>
@@ -6905,7 +6910,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="39">
         <v>40847</v>
       </c>
@@ -6925,7 +6930,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="39">
         <v>40877</v>
       </c>
@@ -6951,7 +6956,7 @@
         <v>40644</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="39"/>
       <c r="B229" s="20" t="s">
         <v>60</v>
@@ -6973,7 +6978,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="39">
         <v>40908</v>
       </c>
@@ -6993,7 +6998,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="47" t="s">
         <v>91</v>
       </c>
@@ -7015,7 +7020,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="39">
         <v>40939</v>
       </c>
@@ -7035,7 +7040,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="39">
         <v>40968</v>
       </c>
@@ -7055,7 +7060,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="39">
         <v>40999</v>
       </c>
@@ -7075,7 +7080,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="39">
         <v>41029</v>
       </c>
@@ -7095,7 +7100,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="39">
         <v>41060</v>
       </c>
@@ -7119,7 +7124,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="39">
         <v>41090</v>
       </c>
@@ -7143,7 +7148,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="39">
         <v>41121</v>
       </c>
@@ -7169,7 +7174,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="39"/>
       <c r="B239" s="20" t="s">
         <v>45</v>
@@ -7191,7 +7196,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="39"/>
       <c r="B240" s="20" t="s">
         <v>229</v>
@@ -7211,7 +7216,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="39">
         <v>41152</v>
       </c>
@@ -7235,7 +7240,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="39">
         <v>41182</v>
       </c>
@@ -7255,7 +7260,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="39">
         <v>41213</v>
       </c>
@@ -7275,7 +7280,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="39">
         <v>41243</v>
       </c>
@@ -7295,7 +7300,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="39">
         <v>41274</v>
       </c>
@@ -7321,7 +7326,7 @@
         <v>41225</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="39"/>
       <c r="B246" s="20" t="s">
         <v>60</v>
@@ -7343,7 +7348,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="47" t="s">
         <v>90</v>
       </c>
@@ -7365,7 +7370,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="39">
         <v>41305</v>
       </c>
@@ -7385,7 +7390,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="39">
         <v>41333</v>
       </c>
@@ -7405,7 +7410,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="39">
         <v>41364</v>
       </c>
@@ -7425,7 +7430,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="39">
         <v>41394</v>
       </c>
@@ -7451,7 +7456,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="39"/>
       <c r="B252" s="20" t="s">
         <v>48</v>
@@ -7471,7 +7476,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="39">
         <v>41425</v>
       </c>
@@ -7491,7 +7496,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="39">
         <v>41455</v>
       </c>
@@ -7515,7 +7520,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="39">
         <v>41486</v>
       </c>
@@ -7541,7 +7546,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="39">
         <v>41517</v>
       </c>
@@ -7561,7 +7566,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="39">
         <v>41547</v>
       </c>
@@ -7581,7 +7586,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="39">
         <v>41578</v>
       </c>
@@ -7601,7 +7606,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="39">
         <v>41608</v>
       </c>
@@ -7625,7 +7630,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="39">
         <v>41639</v>
       </c>
@@ -7649,7 +7654,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="39"/>
       <c r="B261" s="20" t="s">
         <v>236</v>
@@ -7669,7 +7674,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="47" t="s">
         <v>89</v>
       </c>
@@ -7691,7 +7696,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="39">
         <v>41670</v>
       </c>
@@ -7715,7 +7720,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="39">
         <v>41698</v>
       </c>
@@ -7739,7 +7744,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="39">
         <v>41729</v>
       </c>
@@ -7763,7 +7768,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="39"/>
       <c r="B266" s="20" t="s">
         <v>239</v>
@@ -7783,7 +7788,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="39">
         <v>41759</v>
       </c>
@@ -7809,7 +7814,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="39"/>
       <c r="B268" s="20" t="s">
         <v>246</v>
@@ -7829,7 +7834,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="39">
         <v>41790</v>
       </c>
@@ -7853,7 +7858,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="39">
         <v>41820</v>
       </c>
@@ -7879,7 +7884,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="39"/>
       <c r="B271" s="20" t="s">
         <v>248</v>
@@ -7899,7 +7904,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="39">
         <v>41851</v>
       </c>
@@ -7925,7 +7930,7 @@
         <v>41950</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="39"/>
       <c r="B273" s="20" t="s">
         <v>249</v>
@@ -7945,7 +7950,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="39">
         <v>41882</v>
       </c>
@@ -7969,7 +7974,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="39">
         <v>41912</v>
       </c>
@@ -7993,7 +7998,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="39">
         <v>41943</v>
       </c>
@@ -8017,7 +8022,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="39">
         <v>41973</v>
       </c>
@@ -8041,7 +8046,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="39">
         <v>42004</v>
       </c>
@@ -8067,7 +8072,7 @@
         <v>41710</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="39"/>
       <c r="B279" s="20" t="s">
         <v>240</v>
@@ -8089,7 +8094,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="39"/>
       <c r="B280" s="20" t="s">
         <v>254</v>
@@ -8109,7 +8114,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="47" t="s">
         <v>88</v>
       </c>
@@ -8131,7 +8136,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="39">
         <v>42035</v>
       </c>
@@ -8155,7 +8160,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="39">
         <v>42063</v>
       </c>
@@ -8175,7 +8180,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="39">
         <v>42094</v>
       </c>
@@ -8199,7 +8204,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="39">
         <v>42124</v>
       </c>
@@ -8225,7 +8230,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="39"/>
       <c r="B286" s="20" t="s">
         <v>57</v>
@@ -8242,7 +8247,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="39"/>
       <c r="B287" s="20" t="s">
         <v>45</v>
@@ -8264,7 +8269,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="39">
         <v>42155</v>
       </c>
@@ -8290,7 +8295,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="39">
         <v>42185</v>
       </c>
@@ -8310,7 +8315,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="39">
         <v>42216</v>
       </c>
@@ -8330,7 +8335,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="39">
         <v>42247</v>
       </c>
@@ -8350,7 +8355,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="39">
         <v>42277</v>
       </c>
@@ -8374,7 +8379,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="39">
         <v>42308</v>
       </c>
@@ -8400,7 +8405,7 @@
         <v>42045</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="39"/>
       <c r="B294" s="20" t="s">
         <v>45</v>
@@ -8422,7 +8427,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="39"/>
       <c r="B295" s="20" t="s">
         <v>263</v>
@@ -8442,7 +8447,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="39">
         <v>42338</v>
       </c>
@@ -8468,7 +8473,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="39"/>
       <c r="B297" s="20" t="s">
         <v>264</v>
@@ -8488,7 +8493,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="39">
         <v>42369</v>
       </c>
@@ -8512,7 +8517,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="47" t="s">
         <v>87</v>
       </c>
@@ -8534,7 +8539,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="39">
         <v>42400</v>
       </c>
@@ -8554,7 +8559,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="39">
         <v>42429</v>
       </c>
@@ -8574,7 +8579,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="39">
         <v>42460</v>
       </c>
@@ -8600,7 +8605,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="39">
         <v>42490</v>
       </c>
@@ -8626,7 +8631,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="39"/>
       <c r="B304" s="20" t="s">
         <v>45</v>
@@ -8645,7 +8650,7 @@
         <v>42708</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="39"/>
       <c r="B305" s="20" t="s">
         <v>170</v>
@@ -8662,7 +8667,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="39">
         <v>42521</v>
       </c>
@@ -8682,7 +8687,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="39">
         <v>42551</v>
       </c>
@@ -8702,7 +8707,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="39">
         <v>42582</v>
       </c>
@@ -8722,7 +8727,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="39">
         <v>42613</v>
       </c>
@@ -8748,7 +8753,7 @@
         <v>42377</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="39">
         <v>42643</v>
       </c>
@@ -8774,7 +8779,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="39">
         <v>42674</v>
       </c>
@@ -8794,7 +8799,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="39">
         <v>42704</v>
       </c>
@@ -8814,7 +8819,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="39">
         <v>42735</v>
       </c>
@@ -8840,7 +8845,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="39"/>
       <c r="B314" s="20" t="s">
         <v>54</v>
@@ -8857,7 +8862,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="47" t="s">
         <v>86</v>
       </c>
@@ -8879,7 +8884,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="39">
         <v>42766</v>
       </c>
@@ -8903,7 +8908,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="39">
         <v>42794</v>
       </c>
@@ -8929,7 +8934,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="39"/>
       <c r="B318" s="20" t="s">
         <v>269</v>
@@ -8948,7 +8953,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="39"/>
       <c r="B319" s="20" t="s">
         <v>277</v>
@@ -8968,7 +8973,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="39">
         <v>42825</v>
       </c>
@@ -8992,7 +8997,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="39">
         <v>42855</v>
       </c>
@@ -9016,7 +9021,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="39">
         <v>42886</v>
       </c>
@@ -9042,7 +9047,7 @@
         <v>42771</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="39">
         <v>42916</v>
       </c>
@@ -9062,7 +9067,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="39">
         <v>42947</v>
       </c>
@@ -9088,7 +9093,7 @@
         <v>43046</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="39">
         <v>42978</v>
       </c>
@@ -9114,7 +9119,7 @@
         <v>42774</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="39">
         <v>43008</v>
       </c>
@@ -9134,7 +9139,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="39">
         <v>43039</v>
       </c>
@@ -9160,7 +9165,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="39"/>
       <c r="B328" s="20" t="s">
         <v>45</v>
@@ -9182,7 +9187,7 @@
         <v>42777</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="39">
         <v>43069</v>
       </c>
@@ -9208,7 +9213,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="39"/>
       <c r="B330" s="20" t="s">
         <v>45</v>
@@ -9230,7 +9235,7 @@
         <v>42867</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="39"/>
       <c r="B331" s="20" t="s">
         <v>46</v>
@@ -9252,7 +9257,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="39">
         <v>43100</v>
       </c>
@@ -9272,7 +9277,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="47" t="s">
         <v>44</v>
       </c>
@@ -9290,7 +9295,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="39">
         <v>43101</v>
       </c>
@@ -9310,7 +9315,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="39">
         <v>43132</v>
       </c>
@@ -9330,7 +9335,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="39">
         <v>43160</v>
       </c>
@@ -9356,7 +9361,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="39">
         <v>43191</v>
       </c>
@@ -9382,7 +9387,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="39"/>
       <c r="B338" s="20" t="s">
         <v>48</v>
@@ -9399,7 +9404,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="39">
         <v>43221</v>
       </c>
@@ -9419,7 +9424,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="39">
         <v>43252</v>
       </c>
@@ -9445,7 +9450,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="39">
         <v>43282</v>
       </c>
@@ -9471,7 +9476,7 @@
         <v>43298</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="39">
         <v>43313</v>
       </c>
@@ -9497,7 +9502,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="39">
         <v>43344</v>
       </c>
@@ -9517,7 +9522,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="39">
         <v>43374</v>
       </c>
@@ -9537,7 +9542,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="39">
         <v>43405</v>
       </c>
@@ -9563,7 +9568,7 @@
         <v>43420</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="39"/>
       <c r="B346" s="20" t="s">
         <v>46</v>
@@ -9582,7 +9587,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="39">
         <v>43435</v>
       </c>
@@ -9606,7 +9611,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="47" t="s">
         <v>56</v>
       </c>
@@ -9624,7 +9629,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="39">
         <v>43466</v>
       </c>
@@ -9644,7 +9649,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="39">
         <v>43497</v>
       </c>
@@ -9670,7 +9675,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="39">
         <v>43525</v>
       </c>
@@ -9690,7 +9695,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="39">
         <v>43556</v>
       </c>
@@ -9714,7 +9719,7 @@
         <v>43577</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="39"/>
       <c r="B353" s="20" t="s">
         <v>46</v>
@@ -9738,7 +9743,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="39">
         <v>43586</v>
       </c>
@@ -9758,7 +9763,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="39">
         <v>43617</v>
       </c>
@@ -9778,7 +9783,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="39">
         <v>43647</v>
       </c>
@@ -9804,7 +9809,7 @@
         <v>43663</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="39"/>
       <c r="B357" s="20" t="s">
         <v>45</v>
@@ -9823,7 +9828,7 @@
         <v>43666</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="39">
         <v>43678</v>
       </c>
@@ -9843,7 +9848,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="39">
         <v>43709</v>
       </c>
@@ -9869,7 +9874,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="39">
         <v>43739</v>
       </c>
@@ -9895,7 +9900,7 @@
         <v>43742</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="39"/>
       <c r="B361" s="20" t="s">
         <v>60</v>
@@ -9917,7 +9922,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="39">
         <v>43770</v>
       </c>
@@ -9943,7 +9948,7 @@
         <v>43780</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="39">
         <v>43800</v>
       </c>
@@ -9969,7 +9974,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="47" t="s">
         <v>63</v>
       </c>
@@ -9987,7 +9992,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="39">
         <v>43831</v>
       </c>
@@ -10011,7 +10016,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="39">
         <v>43862</v>
       </c>
@@ -10037,7 +10042,7 @@
         <v>43889</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="39"/>
       <c r="B367" s="20" t="s">
         <v>57</v>
@@ -10054,7 +10059,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="39">
         <v>43891</v>
       </c>
@@ -10080,7 +10085,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="39">
         <v>43922</v>
       </c>
@@ -10100,7 +10105,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="39">
         <v>43952</v>
       </c>
@@ -10120,7 +10125,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="39">
         <v>43983</v>
       </c>
@@ -10140,7 +10145,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="39">
         <v>44013</v>
       </c>
@@ -10160,7 +10165,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="39">
         <v>44044</v>
       </c>
@@ -10180,7 +10185,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="39">
         <v>44075</v>
       </c>
@@ -10200,7 +10205,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="39">
         <v>44105</v>
       </c>
@@ -10220,7 +10225,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="39">
         <v>44136</v>
       </c>
@@ -10240,7 +10245,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="39">
         <v>44166</v>
       </c>
@@ -10264,7 +10269,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="47" t="s">
         <v>69</v>
       </c>
@@ -10282,7 +10287,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="39">
         <v>44197</v>
       </c>
@@ -10302,7 +10307,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="39">
         <v>44228</v>
       </c>
@@ -10328,7 +10333,7 @@
         <v>44236</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="39">
         <v>44256</v>
       </c>
@@ -10348,7 +10353,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="39">
         <v>44287</v>
       </c>
@@ -10368,7 +10373,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="39">
         <v>44317</v>
       </c>
@@ -10388,7 +10393,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="39">
         <v>44348</v>
       </c>
@@ -10408,7 +10413,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="39">
         <v>44378</v>
       </c>
@@ -10428,7 +10433,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="39">
         <v>44409</v>
       </c>
@@ -10448,7 +10453,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="39">
         <v>44440</v>
       </c>
@@ -10468,7 +10473,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="39">
         <v>44470</v>
       </c>
@@ -10488,7 +10493,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="39">
         <v>44501</v>
       </c>
@@ -10514,7 +10519,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="39">
         <v>44531</v>
       </c>
@@ -10538,7 +10543,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="47" t="s">
         <v>71</v>
       </c>
@@ -10556,7 +10561,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="39">
         <v>44562</v>
       </c>
@@ -10576,7 +10581,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="39">
         <v>44593</v>
       </c>
@@ -10600,7 +10605,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="39">
         <v>44621</v>
       </c>
@@ -10620,7 +10625,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="39">
         <v>44652</v>
       </c>
@@ -10646,7 +10651,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="39">
         <v>44682</v>
       </c>
@@ -10672,7 +10677,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="39">
         <v>44713</v>
       </c>
@@ -10692,7 +10697,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="39">
         <v>44743</v>
       </c>
@@ -10718,7 +10723,7 @@
         <v>44755</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="39">
         <v>44774</v>
       </c>
@@ -10744,7 +10749,7 @@
         <v>44790</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="39">
         <v>44805</v>
       </c>
@@ -10764,7 +10769,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="39">
         <v>44835</v>
       </c>
@@ -10784,7 +10789,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="39">
         <v>44866</v>
       </c>
@@ -10810,7 +10815,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="39">
         <v>44896</v>
       </c>
@@ -10836,7 +10841,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="47" t="s">
         <v>77</v>
       </c>
@@ -10854,7 +10859,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="39">
         <v>44927</v>
       </c>
@@ -10880,7 +10885,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="39">
         <v>44958</v>
       </c>
@@ -10900,7 +10905,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="39">
         <v>44986</v>
       </c>
@@ -10926,7 +10931,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="39"/>
       <c r="B408" s="20" t="s">
         <v>48</v>
@@ -10946,7 +10951,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="39">
         <v>45017</v>
       </c>
@@ -10972,7 +10977,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="39">
         <v>45047</v>
       </c>
@@ -10992,29 +10997,33 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="39">
         <v>45078</v>
       </c>
       <c r="B411" s="20"/>
-      <c r="C411" s="13"/>
+      <c r="C411" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D411" s="38"/>
       <c r="E411" s="9"/>
       <c r="F411" s="20"/>
-      <c r="G411" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G411" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H411" s="38"/>
       <c r="I411" s="9"/>
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="39">
         <v>45108</v>
       </c>
-      <c r="B412" s="20"/>
+      <c r="B412" s="20" t="s">
+        <v>72</v>
+      </c>
       <c r="C412" s="13"/>
       <c r="D412" s="38"/>
       <c r="E412" s="9"/>
@@ -11023,12 +11032,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H412" s="38"/>
-      <c r="I412" s="9"/>
+      <c r="H412" s="38">
+        <v>3</v>
+      </c>
+      <c r="I412" s="9" t="s">
+        <v>285</v>
+      </c>
       <c r="J412" s="11"/>
-      <c r="K412" s="20"/>
-    </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K412" s="20" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="39">
         <v>45139</v>
       </c>
@@ -11046,7 +11061,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="39">
         <v>45170</v>
       </c>
@@ -11064,7 +11079,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="39">
         <v>45200</v>
       </c>
@@ -11082,7 +11097,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="39">
         <v>45231</v>
       </c>
@@ -11100,7 +11115,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="39">
         <v>45261</v>
       </c>
@@ -11118,7 +11133,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="39">
         <v>45292</v>
       </c>
@@ -11136,7 +11151,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="39">
         <v>45323</v>
       </c>
@@ -11154,7 +11169,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="39">
         <v>45352</v>
       </c>
@@ -11172,7 +11187,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="39">
         <v>45383</v>
       </c>
@@ -11190,7 +11205,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="39">
         <v>45413</v>
       </c>
@@ -11208,7 +11223,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="39">
         <v>45444</v>
       </c>
@@ -11226,7 +11241,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="39">
         <v>45474</v>
       </c>
@@ -11244,7 +11259,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="39">
         <v>45505</v>
       </c>
@@ -11262,7 +11277,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="39">
         <v>45536</v>
       </c>
@@ -11280,7 +11295,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="39">
         <v>45566</v>
       </c>
@@ -11298,7 +11313,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="39">
         <v>45597</v>
       </c>
@@ -11316,7 +11331,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="39">
         <v>45627</v>
       </c>
@@ -11334,7 +11349,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="39">
         <v>45658</v>
       </c>
@@ -11352,7 +11367,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="39">
         <v>45689</v>
       </c>
@@ -11370,7 +11385,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="39">
         <v>45717</v>
       </c>
@@ -11388,7 +11403,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="39">
         <v>45748</v>
       </c>
@@ -11406,7 +11421,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="39">
         <v>45778</v>
       </c>
@@ -11424,7 +11439,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="39">
         <v>45809</v>
       </c>
@@ -11442,7 +11457,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="39">
         <v>45839</v>
       </c>
@@ -11460,7 +11475,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="39">
         <v>45870</v>
       </c>
@@ -11478,7 +11493,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="39">
         <v>45901</v>
       </c>
@@ -11496,7 +11511,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="39">
         <v>45931</v>
       </c>
@@ -11514,7 +11529,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="39">
         <v>45962</v>
       </c>
@@ -11532,7 +11547,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="39">
         <v>45992</v>
       </c>
@@ -11550,7 +11565,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="39">
         <v>46023</v>
       </c>
@@ -11568,7 +11583,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="39">
         <v>46054</v>
       </c>
@@ -11586,7 +11601,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="39">
         <v>46082</v>
       </c>
@@ -11604,7 +11619,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="39">
         <v>46113</v>
       </c>
@@ -11622,7 +11637,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="39">
         <v>46143</v>
       </c>
@@ -11640,7 +11655,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="39">
         <v>46174</v>
       </c>
@@ -11658,7 +11673,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="39">
         <v>46204</v>
       </c>
@@ -11676,7 +11691,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="39">
         <v>46235</v>
       </c>
@@ -11694,7 +11709,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="39">
         <v>46266</v>
       </c>
@@ -11712,7 +11727,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="39">
         <v>46296</v>
       </c>
@@ -11730,7 +11745,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="39"/>
       <c r="B452" s="20"/>
       <c r="C452" s="13"/>
@@ -11746,7 +11761,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="39"/>
       <c r="B453" s="20"/>
       <c r="C453" s="13"/>
@@ -11762,7 +11777,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="39"/>
       <c r="B454" s="20"/>
       <c r="C454" s="13"/>
@@ -11778,7 +11793,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40"/>
       <c r="B455" s="15"/>
       <c r="C455" s="41"/>
@@ -11809,10 +11824,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11835,28 +11850,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="36" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="36" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
@@ -11869,7 +11884,7 @@
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -11898,7 +11913,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11">
@@ -11926,17 +11941,17 @@
         <v>1.208</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="37" t="s">
         <v>28</v>
       </c>
@@ -11957,7 +11972,7 @@
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="36">
         <v>1</v>
       </c>
@@ -11984,7 +11999,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="36">
         <v>2</v>
       </c>
@@ -12010,7 +12025,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="36">
         <v>3</v>
       </c>
@@ -12036,7 +12051,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="36">
         <v>4</v>
       </c>
@@ -12062,7 +12077,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="36">
         <v>5</v>
       </c>
@@ -12088,7 +12103,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="36">
         <v>6</v>
       </c>
@@ -12114,7 +12129,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="36">
         <v>7</v>
       </c>
@@ -12140,7 +12155,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="36">
         <v>8</v>
       </c>
@@ -12166,7 +12181,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="36">
         <v>9</v>
       </c>
@@ -12186,7 +12201,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="36">
         <v>10</v>
       </c>
@@ -12206,7 +12221,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="36">
         <v>11</v>
       </c>
@@ -12226,7 +12241,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="36">
         <v>12</v>
       </c>
@@ -12247,7 +12262,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="36">
         <v>13</v>
       </c>
@@ -12268,7 +12283,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="36">
         <v>14</v>
       </c>
@@ -12289,7 +12304,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="36">
         <v>15</v>
       </c>
@@ -12310,7 +12325,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="36">
         <v>16</v>
       </c>
@@ -12331,7 +12346,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="36">
         <v>17</v>
       </c>
@@ -12352,7 +12367,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="36">
         <v>18</v>
       </c>
@@ -12373,7 +12388,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="36">
         <v>19</v>
       </c>
@@ -12394,7 +12409,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="36">
         <v>20</v>
       </c>
@@ -12415,7 +12430,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="36">
         <v>21</v>
       </c>
@@ -12436,7 +12451,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="36">
         <v>22</v>
       </c>
@@ -12457,7 +12472,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="36">
         <v>23</v>
       </c>
@@ -12478,7 +12493,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="36">
         <v>24</v>
       </c>
@@ -12499,7 +12514,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="36">
         <v>25</v>
       </c>
@@ -12520,7 +12535,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="36">
         <v>26</v>
       </c>
@@ -12541,7 +12556,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="36">
         <v>27</v>
       </c>
@@ -12562,7 +12577,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="36">
         <v>28</v>
       </c>
@@ -12583,7 +12598,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="36">
         <v>29</v>
       </c>
@@ -12604,7 +12619,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="36">
         <v>30</v>
       </c>
@@ -12625,7 +12640,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="36">
         <v>31</v>
       </c>
@@ -12646,7 +12661,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="36">
         <v>32</v>
       </c>
@@ -12655,7 +12670,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="36">
         <v>33</v>
       </c>
@@ -12664,7 +12679,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="36">
         <v>34</v>
       </c>
@@ -12673,7 +12688,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="36">
         <v>35</v>
       </c>
@@ -12682,7 +12697,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="36">
         <v>36</v>
       </c>
@@ -12691,7 +12706,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="36">
         <v>37</v>
       </c>
@@ -12700,7 +12715,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="36">
         <v>38</v>
       </c>
@@ -12709,7 +12724,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="36">
         <v>39</v>
       </c>
@@ -12718,7 +12733,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="36">
         <v>40</v>
       </c>
@@ -12727,7 +12742,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="36">
         <v>41</v>
       </c>
@@ -12736,7 +12751,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="36">
         <v>42</v>
       </c>
@@ -12745,7 +12760,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="36">
         <v>43</v>
       </c>
@@ -12754,7 +12769,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="36">
         <v>44</v>
       </c>
@@ -12763,7 +12778,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="36">
         <v>45</v>
       </c>
@@ -12772,7 +12787,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="36">
         <v>46</v>
       </c>
@@ -12781,7 +12796,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="36">
         <v>47</v>
       </c>
@@ -12790,7 +12805,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="36">
         <v>48</v>
       </c>
@@ -12799,7 +12814,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="36">
         <v>49</v>
       </c>
@@ -12808,7 +12823,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="36">
         <v>50</v>
       </c>
@@ -12817,7 +12832,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="36">
         <v>51</v>
       </c>
@@ -12826,7 +12841,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="36">
         <v>52</v>
       </c>
@@ -12835,7 +12850,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="36">
         <v>53</v>
       </c>
@@ -12844,7 +12859,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="36">
         <v>54</v>
       </c>
@@ -12853,7 +12868,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="36">
         <v>55</v>
       </c>
@@ -12862,7 +12877,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="36">
         <v>56</v>
       </c>
@@ -12871,7 +12886,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="36">
         <v>57</v>
       </c>
@@ -12880,7 +12895,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="36">
         <v>58</v>
       </c>
@@ -12889,7 +12904,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="36">
         <v>59</v>
       </c>
@@ -12898,7 +12913,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="36">
         <v>60</v>
       </c>
@@ -12907,7 +12922,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/CASUAL-REGULAR FINAL/GATPANDAN, NENITA.xlsx
+++ b/REGULAR/CASUAL-REGULAR FINAL/GATPANDAN, NENITA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\CASUAL-REGULAR FINAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CASUAL-REGULAR FINAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="287">
   <si>
     <t>PERIOD</t>
   </si>
@@ -891,6 +891,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>6/5,14,30/2023</t>
   </si>
 </sst>
 </file>
@@ -1588,8 +1591,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K455" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K455"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K456" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K456"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1918,12 +1921,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K455"/>
+  <dimension ref="A2:K456"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="2625" topLeftCell="A401" activePane="bottomLeft"/>
       <selection activeCell="E6" sqref="E6"/>
-      <selection pane="bottomLeft" activeCell="I412" sqref="I412"/>
+      <selection pane="bottomLeft" activeCell="H414" sqref="H414"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2088,7 +2091,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>143.37499999999994</v>
+        <v>144.62499999999994</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2098,7 +2101,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>182.70799999999997</v>
+        <v>180.95799999999997</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -11024,13 +11027,15 @@
       <c r="B412" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="C412" s="13"/>
+      <c r="C412" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D412" s="38"/>
       <c r="E412" s="9"/>
       <c r="F412" s="20"/>
-      <c r="G412" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G412" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H412" s="38">
         <v>3</v>
@@ -11044,10 +11049,10 @@
       </c>
     </row>
     <row r="413" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A413" s="39">
-        <v>45139</v>
-      </c>
-      <c r="B413" s="20"/>
+      <c r="A413" s="39"/>
+      <c r="B413" s="20" t="s">
+        <v>72</v>
+      </c>
       <c r="C413" s="13"/>
       <c r="D413" s="38"/>
       <c r="E413" s="9"/>
@@ -11056,14 +11061,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H413" s="38"/>
+      <c r="H413" s="38">
+        <v>3</v>
+      </c>
       <c r="I413" s="9"/>
       <c r="J413" s="11"/>
-      <c r="K413" s="20"/>
+      <c r="K413" s="20" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="39">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B414" s="20"/>
       <c r="C414" s="13"/>
@@ -11081,7 +11090,7 @@
     </row>
     <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="39">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B415" s="20"/>
       <c r="C415" s="13"/>
@@ -11099,7 +11108,7 @@
     </row>
     <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="39">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B416" s="20"/>
       <c r="C416" s="13"/>
@@ -11117,7 +11126,7 @@
     </row>
     <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="39">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B417" s="20"/>
       <c r="C417" s="13"/>
@@ -11135,7 +11144,7 @@
     </row>
     <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="39">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B418" s="20"/>
       <c r="C418" s="13"/>
@@ -11153,7 +11162,7 @@
     </row>
     <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="39">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B419" s="20"/>
       <c r="C419" s="13"/>
@@ -11171,7 +11180,7 @@
     </row>
     <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="39">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B420" s="20"/>
       <c r="C420" s="13"/>
@@ -11189,7 +11198,7 @@
     </row>
     <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="39">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B421" s="20"/>
       <c r="C421" s="13"/>
@@ -11207,7 +11216,7 @@
     </row>
     <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="39">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B422" s="20"/>
       <c r="C422" s="13"/>
@@ -11225,7 +11234,7 @@
     </row>
     <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="39">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B423" s="20"/>
       <c r="C423" s="13"/>
@@ -11243,7 +11252,7 @@
     </row>
     <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="39">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B424" s="20"/>
       <c r="C424" s="13"/>
@@ -11261,7 +11270,7 @@
     </row>
     <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="39">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B425" s="20"/>
       <c r="C425" s="13"/>
@@ -11279,7 +11288,7 @@
     </row>
     <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="39">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B426" s="20"/>
       <c r="C426" s="13"/>
@@ -11297,7 +11306,7 @@
     </row>
     <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="39">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B427" s="20"/>
       <c r="C427" s="13"/>
@@ -11315,7 +11324,7 @@
     </row>
     <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="39">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B428" s="20"/>
       <c r="C428" s="13"/>
@@ -11333,7 +11342,7 @@
     </row>
     <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="39">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B429" s="20"/>
       <c r="C429" s="13"/>
@@ -11351,7 +11360,7 @@
     </row>
     <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="39">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B430" s="20"/>
       <c r="C430" s="13"/>
@@ -11369,7 +11378,7 @@
     </row>
     <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="39">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B431" s="20"/>
       <c r="C431" s="13"/>
@@ -11387,7 +11396,7 @@
     </row>
     <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="39">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B432" s="20"/>
       <c r="C432" s="13"/>
@@ -11405,7 +11414,7 @@
     </row>
     <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="39">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B433" s="20"/>
       <c r="C433" s="13"/>
@@ -11423,7 +11432,7 @@
     </row>
     <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="39">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B434" s="20"/>
       <c r="C434" s="13"/>
@@ -11441,7 +11450,7 @@
     </row>
     <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="39">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B435" s="20"/>
       <c r="C435" s="13"/>
@@ -11459,7 +11468,7 @@
     </row>
     <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="39">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B436" s="20"/>
       <c r="C436" s="13"/>
@@ -11477,7 +11486,7 @@
     </row>
     <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="39">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B437" s="20"/>
       <c r="C437" s="13"/>
@@ -11495,7 +11504,7 @@
     </row>
     <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="39">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B438" s="20"/>
       <c r="C438" s="13"/>
@@ -11513,7 +11522,7 @@
     </row>
     <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="39">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B439" s="20"/>
       <c r="C439" s="13"/>
@@ -11531,7 +11540,7 @@
     </row>
     <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="39">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B440" s="20"/>
       <c r="C440" s="13"/>
@@ -11549,7 +11558,7 @@
     </row>
     <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="39">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B441" s="20"/>
       <c r="C441" s="13"/>
@@ -11567,7 +11576,7 @@
     </row>
     <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="39">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B442" s="20"/>
       <c r="C442" s="13"/>
@@ -11585,7 +11594,7 @@
     </row>
     <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="39">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B443" s="20"/>
       <c r="C443" s="13"/>
@@ -11603,7 +11612,7 @@
     </row>
     <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="39">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B444" s="20"/>
       <c r="C444" s="13"/>
@@ -11621,7 +11630,7 @@
     </row>
     <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="39">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B445" s="20"/>
       <c r="C445" s="13"/>
@@ -11639,7 +11648,7 @@
     </row>
     <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="39">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B446" s="20"/>
       <c r="C446" s="13"/>
@@ -11657,7 +11666,7 @@
     </row>
     <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="39">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B447" s="20"/>
       <c r="C447" s="13"/>
@@ -11675,7 +11684,7 @@
     </row>
     <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="39">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B448" s="20"/>
       <c r="C448" s="13"/>
@@ -11693,7 +11702,7 @@
     </row>
     <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="39">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B449" s="20"/>
       <c r="C449" s="13"/>
@@ -11711,7 +11720,7 @@
     </row>
     <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="39">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B450" s="20"/>
       <c r="C450" s="13"/>
@@ -11729,7 +11738,7 @@
     </row>
     <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="39">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B451" s="20"/>
       <c r="C451" s="13"/>
@@ -11746,7 +11755,9 @@
       <c r="K451" s="20"/>
     </row>
     <row r="452" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A452" s="39"/>
+      <c r="A452" s="39">
+        <v>46296</v>
+      </c>
       <c r="B452" s="20"/>
       <c r="C452" s="13"/>
       <c r="D452" s="38"/>
@@ -11794,20 +11805,36 @@
       <c r="K454" s="20"/>
     </row>
     <row r="455" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A455" s="40"/>
-      <c r="B455" s="15"/>
-      <c r="C455" s="41"/>
-      <c r="D455" s="42"/>
+      <c r="A455" s="39"/>
+      <c r="B455" s="20"/>
+      <c r="C455" s="13"/>
+      <c r="D455" s="38"/>
       <c r="E455" s="9"/>
-      <c r="F455" s="15"/>
-      <c r="G455" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H455" s="42"/>
+      <c r="F455" s="20"/>
+      <c r="G455" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H455" s="38"/>
       <c r="I455" s="9"/>
-      <c r="J455" s="12"/>
-      <c r="K455" s="15"/>
+      <c r="J455" s="11"/>
+      <c r="K455" s="20"/>
+    </row>
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A456" s="40"/>
+      <c r="B456" s="15"/>
+      <c r="C456" s="41"/>
+      <c r="D456" s="42"/>
+      <c r="E456" s="9"/>
+      <c r="F456" s="15"/>
+      <c r="G456" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H456" s="42"/>
+      <c r="I456" s="9"/>
+      <c r="J456" s="12"/>
+      <c r="K456" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
